--- a/data/trans_dic/P15D-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15D-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,85%</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 67,49</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,73%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 67,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 80,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,0; 53,39</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>13,33%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,35%</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,0; 50,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 48,16</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,85%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 66,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,0; 64,48</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>51,0%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,41%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>0; 56,93</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0; 56,93</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 91,3</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,59%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 30,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 66,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>0,0; 29,79</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,31%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>13,46; 66,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>6,07; 46,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>13,64; 49,81</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,02%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>9,97; 33,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>9,23; 37,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>12,46; 30,12</t>
         </is>
       </c>
     </row>
